--- a/2021_2022_Sem1/list_Sorted_2021_2022_Sem1.xlsx
+++ b/2021_2022_Sem1/list_Sorted_2021_2022_Sem1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ke Yule\Desktop\Deanlist\2021_2022_Sem1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032E7CDC-A1F9-482E-A69D-423663B17465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F337E4-D318-4559-A230-900036F5844A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list_2021_2022_Sem1" sheetId="2" r:id="rId1"/>
@@ -462,7 +462,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0A6006E3-AD8B-4A32-8A98-11A970503906}" name="list_2021_2022_Sem1" displayName="list_2021_2022_Sem1" ref="A1:C57" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:C57" xr:uid="{0A6006E3-AD8B-4A32-8A98-11A970503906}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C57">
-    <sortCondition ref="B1:B57"/>
+    <sortCondition ref="C1:C57"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{35178858-5725-4832-A571-8D7CE1FC63B1}" uniqueName="1" name="certID" queryTableFieldId="1"/>
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956A59CC-3376-4517-8C86-EE6F23D939C6}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,32 +775,32 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>44800777</v>
+        <v>44800343</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>44800538</v>
+        <v>44800344</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>44800343</v>
+        <v>44800346</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>17</v>
@@ -808,10 +808,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>44800344</v>
+        <v>44800347</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
@@ -819,13 +819,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>44799718</v>
+        <v>44800351</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
         <v>63</v>
@@ -836,39 +836,39 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>44799997</v>
+        <v>44800354</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
         <v>64</v>
       </c>
       <c r="H8" s="2" cm="1">
         <f t="array" ref="H8">SUMPRODUCT(1/COUNTIF(C2:C57,C2:C57))</f>
-        <v>4.9999999999999964</v>
+        <v>5.0000000000000044</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>44800780</v>
+        <v>44800355</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>44800346</v>
+        <v>44800357</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
@@ -883,13 +883,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>44800541</v>
+        <v>44800358</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
         <v>40</v>
@@ -901,10 +901,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>44800347</v>
+        <v>44800364</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>17</v>
@@ -919,13 +919,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>44800784</v>
+        <v>44800366</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s">
         <v>23</v>
@@ -937,13 +937,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>44799719</v>
+        <v>44800368</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G14" t="s">
         <v>15</v>
@@ -955,13 +955,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>44800350</v>
+        <v>44800369</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G15" t="s">
         <v>65</v>
@@ -973,10 +973,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>44800351</v>
+        <v>44800372</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>17</v>
@@ -991,13 +991,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>44800790</v>
+        <v>44800374</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
         <v>67</v>
@@ -1009,13 +1009,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>44799720</v>
+        <v>44800377</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G18" t="s">
         <v>68</v>
@@ -1027,32 +1027,32 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>44800543</v>
+        <v>44800379</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>44799723</v>
+        <v>44800382</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>44800354</v>
+        <v>44800383</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>17</v>
@@ -1060,24 +1060,24 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>44800355</v>
+        <v>44800538</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>44800357</v>
+        <v>44800543</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1093,21 +1093,21 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>44800793</v>
+        <v>44800548</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>44800548</v>
+        <v>44800551</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>40</v>
@@ -1115,32 +1115,32 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>44800358</v>
+        <v>44800552</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>44800795</v>
+        <v>44800557</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>44800551</v>
+        <v>44800560</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>40</v>
@@ -1148,10 +1148,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>44800552</v>
+        <v>44800562</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>40</v>
@@ -1159,98 +1159,98 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>44800364</v>
+        <v>44800567</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>44800797</v>
+        <v>44799718</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>44800557</v>
+        <v>44799719</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>44800366</v>
+        <v>44799720</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>44800368</v>
+        <v>44799723</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>44800560</v>
+        <v>44799726</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>44800562</v>
+        <v>44799731</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>44800369</v>
+        <v>44799732</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>44799726</v>
+        <v>44799736</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
@@ -1258,21 +1258,21 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>44800567</v>
+        <v>44799737</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>44799731</v>
+        <v>44799739</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
@@ -1280,21 +1280,21 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>44800372</v>
+        <v>44800777</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>44800798</v>
+        <v>44800780</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>23</v>
@@ -1302,21 +1302,21 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>44800374</v>
+        <v>44800541</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>44800804</v>
+        <v>44800784</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>23</v>
@@ -1324,43 +1324,43 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>44799732</v>
+        <v>44800350</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>44800377</v>
+        <v>44800790</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>44799736</v>
+        <v>44800793</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>44800806</v>
+        <v>44800795</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>23</v>
@@ -1368,46 +1368,46 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>44800379</v>
+        <v>44800797</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>44800382</v>
+        <v>44800798</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>44800383</v>
+        <v>44800804</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>44799737</v>
+        <v>44800806</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1434,24 +1434,24 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>44799739</v>
+        <v>44800813</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>44800813</v>
+        <v>44799997</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1466,8 +1466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
